--- a/Data Documentations.xlsx
+++ b/Data Documentations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9d46aeba1d037cc/Documents/travel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11226B85-4025-45B4-B8BF-0EC12AEB8A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{11226B85-4025-45B4-B8BF-0EC12AEB8A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A87EBFB-AF2D-4ED0-8355-18AC824A9B4B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{38FCF322-BA48-4C1A-9AF8-825845128325}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{38FCF322-BA48-4C1A-9AF8-825845128325}"/>
   </bookViews>
   <sheets>
     <sheet name="Name Index" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>Airport Code</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Only for "major airports"</t>
+  </si>
+  <si>
+    <t>Flights</t>
   </si>
 </sst>
 </file>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8161C0B-A42B-4ADF-8697-B5E19CA478ED}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -891,10 +894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C63C31-CAD0-4307-AAC8-D8176E01FDA6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -923,6 +926,17 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
     </row>
